--- a/Implementación/Test 7/pareto.xlsx
+++ b/Implementación/Test 7/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419994F1-7222-4BBC-BFA9-3EEF1DFA149F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77971A9D-C205-4D91-B046-D5CA2DE8DCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{B7B0962E-5593-4E21-90D5-47E7C819C827}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
   <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>CLAHE__i1__m594__n2__cl0.090194.png</t>
   </si>
   <si>
@@ -808,19 +805,22 @@
     <t>CLAHE__i100__m2__n45__cl0.png</t>
   </si>
   <si>
-    <t>Pareto_1</t>
-  </si>
-  <si>
-    <t>Pareto_2</t>
-  </si>
-  <si>
-    <t>Pareto_3</t>
-  </si>
-  <si>
-    <t>Pareto_4</t>
-  </si>
-  <si>
-    <t>Pareto_5</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1179,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
         <v>257</v>
@@ -1205,7 +1206,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>594</v>
@@ -1225,7 +1226,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1245,7 +1246,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1265,7 +1266,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>681</v>
@@ -1305,7 +1306,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -1325,7 +1326,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>699</v>
@@ -1345,7 +1346,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>215</v>
@@ -1365,7 +1366,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -1385,7 +1386,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>947</v>
@@ -1405,7 +1406,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1425,7 +1426,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1445,7 +1446,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>118</v>
@@ -1465,7 +1466,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1485,7 +1486,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>523</v>
@@ -1505,7 +1506,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>646</v>
@@ -1525,7 +1526,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>947</v>
@@ -1545,7 +1546,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1565,7 +1566,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>110</v>
@@ -1585,7 +1586,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>228</v>
@@ -1605,7 +1606,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>747</v>
@@ -1625,7 +1626,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>947</v>
@@ -1645,7 +1646,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>947</v>
@@ -1665,7 +1666,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>947</v>
@@ -1685,7 +1686,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1705,7 +1706,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1725,7 +1726,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>550</v>
@@ -1745,7 +1746,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1765,7 +1766,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1785,7 +1786,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1805,7 +1806,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1825,7 +1826,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1845,7 +1846,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1865,7 +1866,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1885,7 +1886,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1905,7 +1906,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1925,7 +1926,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1945,7 +1946,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1985,7 +1986,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2005,7 +2006,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2025,7 +2026,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2045,7 +2046,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2065,7 +2066,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2085,7 +2086,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -2105,7 +2106,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2125,7 +2126,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2145,7 +2146,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2165,7 +2166,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2185,7 +2186,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2205,7 +2206,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2225,7 +2226,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2285,7 +2286,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2325,7 +2326,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2345,7 +2346,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2365,7 +2366,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2385,7 +2386,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2405,7 +2406,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2425,7 +2426,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2445,7 +2446,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2465,7 +2466,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -2485,7 +2486,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2505,7 +2506,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2525,7 +2526,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2565,7 +2566,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2585,7 +2586,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -2605,7 +2606,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -2625,7 +2626,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2645,7 +2646,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -2665,7 +2666,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2685,7 +2686,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -2705,7 +2706,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2725,7 +2726,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2745,7 +2746,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2765,7 +2766,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2785,7 +2786,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2805,7 +2806,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2825,7 +2826,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2845,7 +2846,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2865,7 +2866,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2885,7 +2886,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2925,7 +2926,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -2945,7 +2946,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -2965,7 +2966,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2985,7 +2986,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -3005,7 +3006,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -3025,7 +3026,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -3045,7 +3046,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -3065,7 +3066,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -3085,7 +3086,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -3105,7 +3106,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -3145,7 +3146,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3165,7 +3166,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -3205,7 +3206,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -3225,7 +3226,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -3245,7 +3246,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -3265,7 +3266,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -3285,7 +3286,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -3305,7 +3306,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3325,7 +3326,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -3345,7 +3346,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -3365,7 +3366,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -3405,7 +3406,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -3425,7 +3426,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3465,7 +3466,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -3485,7 +3486,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -3525,7 +3526,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -3545,7 +3546,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -3565,7 +3566,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -3585,7 +3586,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -3605,7 +3606,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -3645,7 +3646,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -3665,7 +3666,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -3685,7 +3686,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -3705,7 +3706,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -3725,7 +3726,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -3745,7 +3746,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3765,7 +3766,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -3845,7 +3846,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3865,7 +3866,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3885,7 +3886,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3905,7 +3906,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3925,7 +3926,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -3965,7 +3966,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -4005,7 +4006,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -4045,7 +4046,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -4105,7 +4106,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -4125,7 +4126,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4145,7 +4146,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -4165,7 +4166,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -4185,7 +4186,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -4205,7 +4206,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -4225,7 +4226,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -4265,7 +4266,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -4285,7 +4286,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -4305,7 +4306,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -4325,7 +4326,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -4365,7 +4366,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -4405,7 +4406,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -4425,7 +4426,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -4445,7 +4446,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -4525,7 +4526,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -4565,7 +4566,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -4585,7 +4586,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -4605,7 +4606,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -4625,7 +4626,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -4645,7 +4646,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -4665,7 +4666,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -4685,7 +4686,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -4725,7 +4726,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -4745,7 +4746,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4765,7 +4766,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -4785,7 +4786,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181">
         <v>2</v>
@@ -4805,7 +4806,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -4845,7 +4846,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -4865,7 +4866,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -4885,7 +4886,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -4925,7 +4926,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -4965,7 +4966,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -4985,7 +4986,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -5005,7 +5006,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -5025,7 +5026,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -5045,7 +5046,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -5065,7 +5066,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -5085,7 +5086,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -5105,7 +5106,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5125,7 +5126,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -5145,7 +5146,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -5165,7 +5166,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -5225,7 +5226,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5245,7 +5246,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5265,7 +5266,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5285,7 +5286,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -5305,7 +5306,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -5325,7 +5326,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5365,7 +5366,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -5405,7 +5406,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -5425,7 +5426,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -5445,7 +5446,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -5465,7 +5466,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -5505,7 +5506,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -5525,7 +5526,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -5545,7 +5546,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -5565,7 +5566,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -5585,7 +5586,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -5605,7 +5606,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -5645,7 +5646,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -5665,7 +5666,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -5685,7 +5686,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -5705,7 +5706,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -5725,7 +5726,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -5745,7 +5746,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5765,7 +5766,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -5785,7 +5786,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -5805,7 +5806,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -5825,7 +5826,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -5845,7 +5846,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -5865,7 +5866,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -5885,7 +5886,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -5905,7 +5906,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -5925,7 +5926,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5945,7 +5946,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -5965,7 +5966,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -5985,7 +5986,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -6005,7 +6006,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -6025,7 +6026,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -6045,7 +6046,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -6065,7 +6066,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -6085,7 +6086,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -6105,7 +6106,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -6125,7 +6126,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -6145,7 +6146,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -6165,7 +6166,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -6185,7 +6186,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -6205,7 +6206,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -6225,7 +6226,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -6245,7 +6246,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -6265,7 +6266,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -6285,7 +6286,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -6305,7 +6306,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -6325,7 +6326,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -6345,7 +6346,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -6365,7 +6366,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -6385,7 +6386,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -6405,7 +6406,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -6425,7 +6426,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -6445,7 +6446,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B264">
         <v>2</v>

--- a/Implementación/Test 7/pareto.xlsx
+++ b/Implementación/Test 7/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77971A9D-C205-4D91-B046-D5CA2DE8DCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477EF487-5E01-4643-80AB-C67B7CD9C4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{B7B0962E-5593-4E21-90D5-47E7C819C827}"/>
   </bookViews>

--- a/Implementación/Test 7/pareto.xlsx
+++ b/Implementación/Test 7/pareto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477EF487-5E01-4643-80AB-C67B7CD9C4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4C06BEF-E886-43EA-BBA2-14B427B0ACCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{B7B0962E-5593-4E21-90D5-47E7C819C827}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="12343" windowHeight="6317" xr2:uid="{B7B0962E-5593-4E21-90D5-47E7C819C827}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1176,15 +1176,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0.53229442444815356</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0.89300446221749763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.74182348257018282</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0.51820545015577835</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0.52741514151941438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.77646601522677405</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.53121598189760777</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.99784807202454018</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.81119846580858823</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.66968808419240089</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0.96661042807642394</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0.91163887144352951</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.94317969384638944</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0.6905498820139222</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.55219469107624686</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.52079633786902246</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0.55211377153400099</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0.82413153896591185</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.51067375584107655</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.96980937361175656</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.95418278500840004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0.98326363859889521</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0.97914284322847667</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0.71923910776431066</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.86097263815730796</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.72764691486237509</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.85986560613907292</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.99998232353784589</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0.81551948738557001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.99995345146462655</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.64695183235992215</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0.99996585405986582</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0.99998374357734543</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0.76277518195600436</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.83494829161736528</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0.77481923278021958</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.79793331177549387</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0.72804285727926288</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.85961152105805094</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0.99995652511046729</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0.9998884856895931</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.99995345146462655</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0.80313280928032027</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.66515892304383117</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0.77418013856750933</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0.9998884856895931</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>0.9998884856895931</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.79522501058979234</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0.9935110763986813</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.99999108311288443</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.77424422307145435</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0.99995652511046729</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.83230962731247649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0.99998374357734543</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0.69024903306417218</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0.99877728009157141</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0.65121728494472986</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.66499260609332578</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0.76931664811514489</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.73901434146441347</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0.99784423053905402</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0.75362468516469261</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0.67702210057492751</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0.68105699462903813</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0.73242717948789426</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0.67374232383446098</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.83747894990250293</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0.7526761296471085</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.66901972543119637</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0.99998232353784589</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0.99995805421553541</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.64515523911809158</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.99995805421553541</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0.9067031837167655</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0.69759906949488337</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0.91741663793753814</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.9936561622185468</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>119</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0.68431930827700171</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>120</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0.84855322222050811</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0.99995805421553541</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0.99162072883951269</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0.90350384487228563</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.99995805421553541</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0.99998232353784589</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>131</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.92762533050664053</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>133</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0.73277314068005361</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>134</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0.80217081442174787</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.80815817653787381</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0.99996529758636354</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.84067342763464881</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0.66660393377037819</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>139</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0.99995652511046729</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>141</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0.92245469606334485</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>142</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0.97963280419658072</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>143</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0.7219522856304641</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>144</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.80136401063051155</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>145</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0.99999108311288443</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>146</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0.88932260798198337</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>149</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>150</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0.88414817830848325</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.91126067131808319</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>154</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0.98701463386626664</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>155</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>156</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0.98021591416271492</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.87577056141037934</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0.74287210351599575</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>163</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0.99996529758636354</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>164</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>165</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>166</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>167</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0.88620738005477395</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>168</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0.64515523911809158</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>169</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>170</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>171</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>172</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0.89134297654150807</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>174</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.90982949379327838</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>175</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>176</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0.99996585405986582</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>177</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0.61852091001661391</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>178</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0.92667497255458098</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>179</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0.88134295887354674</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>180</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0.92580353359762013</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0.9998884856895931</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>182</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0.8632120731309989</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0.82716237188196884</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0.92107435072455945</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0.58929978175780384</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>186</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0.61852091001661391</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>0.98106521989891415</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>189</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0.99995345146462655</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>191</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0.9998884856895931</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>192</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>193</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>194</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>195</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>197</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0.7410744110100409</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>198</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>0.82007238214430622</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>199</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>200</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0.99995346662684415</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>201</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0.91415211487392489</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>202</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0.91415211487392489</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>203</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0.85104880913289049</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>204</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0.8632120731309989</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>205</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>206</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0.66183187062643623</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>207</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0.86222191582067131</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>208</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0.84692581705534808</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>210</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0.99998374357734543</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>211</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>212</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.61852091001661391</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>213</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0.99999108311288443</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>214</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>215</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0.91971160319538459</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>216</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0.98540547263995271</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>217</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0.89063021047952506</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>218</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0.88820859019825182</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>219</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0.99995652511046729</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>220</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0.58929978175780384</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>221</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0.8735504053658838</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>222</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0.99998232353784589</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>223</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0.58929978175780384</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>224</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0.64515523911809158</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>225</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>225</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>226</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0.98135744481571441</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>227</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0.86972091095957849</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>228</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0.66000575644193715</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>0.99995345146462655</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.87963915931557701</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>231</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>0.98415234011970099</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>232</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.67732882944364525</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>233</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.85561785501772625</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>234</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0.98135744481571441</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>235</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0.98673778008580348</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>236</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0.99993465710109053</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>237</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0.91037478960546636</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>238</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>239</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>240</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0.82224454711095718</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>241</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0.92107435072455945</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>242</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>243</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>244</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>245</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0.99995805421553541</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>246</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>247</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0.99989064815445738</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>248</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>0.99995652511046729</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>249</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0.87637300847193011</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>250</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0.99996585405986582</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>251</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0.99989050319348083</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>252</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0.85969664341762908</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>253</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0.92357132261486952</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>254</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>0.99999865682213152</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>255</v>
       </c>
@@ -6475,7 +6475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6487,7 +6487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
